--- a/Code/Results/Cases/Case_4_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_135/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>0.9930491656965224</v>
+        <v>1.042103160828266</v>
       </c>
       <c r="D2">
-        <v>1.014459105063464</v>
+        <v>1.047449668333418</v>
       </c>
       <c r="E2">
-        <v>1.001272435563952</v>
+        <v>1.045762625991648</v>
       </c>
       <c r="F2">
-        <v>1.014125616604885</v>
+        <v>1.055241864462713</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.040220246990145</v>
+        <v>1.036080199957325</v>
       </c>
       <c r="J2">
-        <v>1.015439781405411</v>
+        <v>1.047180785994238</v>
       </c>
       <c r="K2">
-        <v>1.025720610824861</v>
+        <v>1.050212273683783</v>
       </c>
       <c r="L2">
-        <v>1.012714071757489</v>
+        <v>1.048529955483006</v>
       </c>
       <c r="M2">
-        <v>1.025391605256157</v>
+        <v>1.057982862116065</v>
       </c>
       <c r="N2">
-        <v>1.007899323218382</v>
+        <v>1.019437771148988</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.000534651165075</v>
+        <v>1.043592275506503</v>
       </c>
       <c r="D3">
-        <v>1.020300713737048</v>
+        <v>1.048622793244932</v>
       </c>
       <c r="E3">
-        <v>1.008227328342273</v>
+        <v>1.047201647717809</v>
       </c>
       <c r="F3">
-        <v>1.020876062636946</v>
+        <v>1.056633465450365</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.042245027407879</v>
+        <v>1.036393882336288</v>
       </c>
       <c r="J3">
-        <v>1.021010751654424</v>
+        <v>1.048313519075403</v>
       </c>
       <c r="K3">
-        <v>1.030680268717815</v>
+        <v>1.051196308484739</v>
       </c>
       <c r="L3">
-        <v>1.018756010252124</v>
+        <v>1.049778851263619</v>
       </c>
       <c r="M3">
-        <v>1.031248620494954</v>
+        <v>1.059186390690868</v>
       </c>
       <c r="N3">
-        <v>1.009876813405604</v>
+        <v>1.019829062078323</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.005232464137467</v>
+        <v>1.044554474257271</v>
       </c>
       <c r="D4">
-        <v>1.023969280900718</v>
+        <v>1.049380465269363</v>
       </c>
       <c r="E4">
-        <v>1.012598377074156</v>
+        <v>1.048131808629375</v>
       </c>
       <c r="F4">
-        <v>1.025119081003697</v>
+        <v>1.057532866797813</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.043502770312002</v>
+        <v>1.036594861667678</v>
       </c>
       <c r="J4">
-        <v>1.024503263433165</v>
+        <v>1.049044731523641</v>
       </c>
       <c r="K4">
-        <v>1.033786775081183</v>
+        <v>1.05183105651729</v>
       </c>
       <c r="L4">
-        <v>1.022547092000025</v>
+        <v>1.05058547547313</v>
       </c>
       <c r="M4">
-        <v>1.034923506292722</v>
+        <v>1.059963569574531</v>
       </c>
       <c r="N4">
-        <v>1.011114910494079</v>
+        <v>1.020081282631951</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.007174501172691</v>
+        <v>1.044958664855833</v>
       </c>
       <c r="D5">
-        <v>1.025486297942059</v>
+        <v>1.049698655890445</v>
       </c>
       <c r="E5">
-        <v>1.014406752091775</v>
+        <v>1.048522619470004</v>
       </c>
       <c r="F5">
-        <v>1.026874562772045</v>
+        <v>1.057910727795737</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.044019524324138</v>
+        <v>1.036678877663116</v>
       </c>
       <c r="J5">
-        <v>1.025946063287521</v>
+        <v>1.049351721638199</v>
       </c>
       <c r="K5">
-        <v>1.035069416523152</v>
+        <v>1.05209743310303</v>
       </c>
       <c r="L5">
-        <v>1.024114034920033</v>
+        <v>1.050924228172968</v>
       </c>
       <c r="M5">
-        <v>1.036442355776053</v>
+        <v>1.060289921542084</v>
       </c>
       <c r="N5">
-        <v>1.011625971374216</v>
+        <v>1.020187085434746</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.007498701550301</v>
+        <v>1.045026511815536</v>
       </c>
       <c r="D6">
-        <v>1.0257395699535</v>
+        <v>1.049752062008785</v>
       </c>
       <c r="E6">
-        <v>1.014708720570097</v>
+        <v>1.048588225097062</v>
       </c>
       <c r="F6">
-        <v>1.027167702382278</v>
+        <v>1.057974157985858</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.044105600976492</v>
+        <v>1.036692956471018</v>
       </c>
       <c r="J6">
-        <v>1.026186862500868</v>
+        <v>1.049403242647601</v>
       </c>
       <c r="K6">
-        <v>1.03528344400514</v>
+        <v>1.052142131386228</v>
       </c>
       <c r="L6">
-        <v>1.024375600470468</v>
+        <v>1.050981085760186</v>
       </c>
       <c r="M6">
-        <v>1.036695888513081</v>
+        <v>1.060344695693761</v>
       </c>
       <c r="N6">
-        <v>1.011711241040635</v>
+        <v>1.020204836710758</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.005258540604509</v>
+        <v>1.044559876311293</v>
       </c>
       <c r="D7">
-        <v>1.023989648791272</v>
+        <v>1.049384718257186</v>
       </c>
       <c r="E7">
-        <v>1.01262265328663</v>
+        <v>1.048137031554121</v>
       </c>
       <c r="F7">
-        <v>1.025142646908425</v>
+        <v>1.057537916759559</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.043509721667303</v>
+        <v>1.036595986160684</v>
       </c>
       <c r="J7">
-        <v>1.024522640405479</v>
+        <v>1.049048835151281</v>
       </c>
       <c r="K7">
-        <v>1.033804003898205</v>
+        <v>1.051834617701326</v>
       </c>
       <c r="L7">
-        <v>1.02256813305363</v>
+        <v>1.050590003279752</v>
       </c>
       <c r="M7">
-        <v>1.03494390184336</v>
+        <v>1.059967931768631</v>
       </c>
       <c r="N7">
-        <v>1.011121775766361</v>
+        <v>1.020082697278641</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>0.9956103562871532</v>
+        <v>1.042606699731954</v>
       </c>
       <c r="D8">
-        <v>1.016457244172974</v>
+        <v>1.047846427962423</v>
       </c>
       <c r="E8">
-        <v>1.003650718005451</v>
+        <v>1.046249157374935</v>
       </c>
       <c r="F8">
-        <v>1.016433866659552</v>
+        <v>1.055712385034782</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.040915732006607</v>
+        <v>1.036186624305382</v>
       </c>
       <c r="J8">
-        <v>1.017346663602314</v>
+        <v>1.04756396227764</v>
       </c>
       <c r="K8">
-        <v>1.027418812176426</v>
+        <v>1.050545247263836</v>
       </c>
       <c r="L8">
-        <v>1.014781464042781</v>
+        <v>1.048952338657612</v>
       </c>
       <c r="M8">
-        <v>1.027395738623441</v>
+        <v>1.058389931540743</v>
       </c>
       <c r="N8">
-        <v>1.008576522602962</v>
+        <v>1.019570211799098</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>0.9773934270845084</v>
+        <v>1.039154221699902</v>
       </c>
       <c r="D9">
-        <v>1.002261307021787</v>
+        <v>1.045124684369643</v>
       </c>
       <c r="E9">
-        <v>0.9867652459663343</v>
+        <v>1.042914671487587</v>
       </c>
       <c r="F9">
-        <v>1.000049260466622</v>
+        <v>1.052487202210424</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.035915869728616</v>
+        <v>1.03544992754739</v>
       </c>
       <c r="J9">
-        <v>1.003770538882712</v>
+        <v>1.044933847610834</v>
       </c>
       <c r="K9">
-        <v>1.015317802329528</v>
+        <v>1.04825778076856</v>
       </c>
       <c r="L9">
-        <v>1.000076760585563</v>
+        <v>1.046054856488974</v>
       </c>
       <c r="M9">
-        <v>1.013141538504616</v>
+        <v>1.055596918265211</v>
       </c>
       <c r="N9">
-        <v>1.003749250750846</v>
+        <v>1.018659634593932</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>0.9642748433234092</v>
+        <v>1.036844890421676</v>
       </c>
       <c r="D10">
-        <v>0.9920662921870301</v>
+        <v>1.043302432616796</v>
       </c>
       <c r="E10">
-        <v>0.974649125766211</v>
+        <v>1.040686026682321</v>
       </c>
       <c r="F10">
-        <v>0.9882993192494203</v>
+        <v>1.050331087313904</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.032251000802632</v>
+        <v>1.03494836888239</v>
       </c>
       <c r="J10">
-        <v>0.9939812518774853</v>
+        <v>1.04317096985355</v>
       </c>
       <c r="K10">
-        <v>1.006580285060848</v>
+        <v>1.046722141756622</v>
       </c>
       <c r="L10">
-        <v>0.9894916971339589</v>
+        <v>1.044114965761424</v>
       </c>
       <c r="M10">
-        <v>1.002883096331755</v>
+        <v>1.05372625206327</v>
       </c>
       <c r="N10">
-        <v>1.000262173309545</v>
+        <v>1.01804742372127</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>0.9583219087334265</v>
+        <v>1.035842999226458</v>
       </c>
       <c r="D11">
-        <v>0.9874492555957282</v>
+        <v>1.042511468828855</v>
       </c>
       <c r="E11">
-        <v>0.9691631213249643</v>
+        <v>1.039719567449367</v>
       </c>
       <c r="F11">
-        <v>0.9829815019493887</v>
+        <v>1.049395961136644</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.03057403272187</v>
+        <v>1.034728690771112</v>
       </c>
       <c r="J11">
-        <v>0.9895375526567226</v>
+        <v>1.042405302728157</v>
       </c>
       <c r="K11">
-        <v>1.002611806466256</v>
+        <v>1.046054599955737</v>
       </c>
       <c r="L11">
-        <v>0.9846909874868693</v>
+        <v>1.04327293649937</v>
       </c>
       <c r="M11">
-        <v>0.9982316606065453</v>
+        <v>1.052914103847109</v>
       </c>
       <c r="N11">
-        <v>0.9986782301873823</v>
+        <v>1.017781081411866</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>0.956065661201188</v>
+        <v>1.035470552414972</v>
       </c>
       <c r="D12">
-        <v>0.9857009741097509</v>
+        <v>1.042217375646151</v>
       </c>
       <c r="E12">
-        <v>0.9670858170389205</v>
+        <v>1.039360357052154</v>
       </c>
       <c r="F12">
-        <v>0.980968316847303</v>
+        <v>1.049048378892083</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.029936474636318</v>
+        <v>1.034646714789643</v>
       </c>
       <c r="J12">
-        <v>0.9878532418281526</v>
+        <v>1.042120543269467</v>
       </c>
       <c r="K12">
-        <v>1.001107345718337</v>
+        <v>1.045806248947295</v>
       </c>
       <c r="L12">
-        <v>0.9828719868695431</v>
+        <v>1.042959855161059</v>
       </c>
       <c r="M12">
-        <v>0.9964694482690896</v>
+        <v>1.052612108103886</v>
       </c>
       <c r="N12">
-        <v>0.9980777498699949</v>
+        <v>1.017681959919823</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>0.9565517456527064</v>
+        <v>1.035550457233074</v>
       </c>
       <c r="D13">
-        <v>0.9860775442606239</v>
+        <v>1.042280473034502</v>
       </c>
       <c r="E13">
-        <v>0.9675332583759353</v>
+        <v>1.039437419183496</v>
       </c>
       <c r="F13">
-        <v>0.9814019263099631</v>
+        <v>1.049122947203274</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.030073916077707</v>
+        <v>1.034664316044931</v>
       </c>
       <c r="J13">
-        <v>0.9882161099582878</v>
+        <v>1.042181641383725</v>
       </c>
       <c r="K13">
-        <v>1.001431478308592</v>
+        <v>1.045859539104434</v>
       </c>
       <c r="L13">
-        <v>0.9832638442777639</v>
+        <v>1.043027026503157</v>
       </c>
       <c r="M13">
-        <v>0.9968490608134505</v>
+        <v>1.052676902153402</v>
       </c>
       <c r="N13">
-        <v>0.9982071217833864</v>
+        <v>1.017703230453574</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>0.9581363517682059</v>
+        <v>1.035812218825354</v>
       </c>
       <c r="D14">
-        <v>0.9873054396435098</v>
+        <v>1.042487165027572</v>
       </c>
       <c r="E14">
-        <v>0.9689922399729033</v>
+        <v>1.039689879629406</v>
       </c>
       <c r="F14">
-        <v>0.9828158858400452</v>
+        <v>1.049367234710794</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.030521638046609</v>
+        <v>1.034721922329503</v>
       </c>
       <c r="J14">
-        <v>0.9893990334026328</v>
+        <v>1.042381771735466</v>
       </c>
       <c r="K14">
-        <v>1.002488083452435</v>
+        <v>1.046034079300334</v>
       </c>
       <c r="L14">
-        <v>0.984541378499681</v>
+        <v>1.04324706354885</v>
       </c>
       <c r="M14">
-        <v>0.9980867173634449</v>
+        <v>1.052889147508905</v>
       </c>
       <c r="N14">
-        <v>0.9986288481663347</v>
+        <v>1.017772891888928</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>0.9591065755700601</v>
+        <v>1.035973458782443</v>
       </c>
       <c r="D15">
-        <v>0.9880574799906614</v>
+        <v>1.042614475644799</v>
       </c>
       <c r="E15">
-        <v>0.9698858102613614</v>
+        <v>1.039845398870059</v>
       </c>
       <c r="F15">
-        <v>0.9836819413160249</v>
+        <v>1.049517716982575</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.030795515743045</v>
+        <v>1.034757365341974</v>
       </c>
       <c r="J15">
-        <v>0.9901233080373015</v>
+        <v>1.042505031198587</v>
       </c>
       <c r="K15">
-        <v>1.003134982305319</v>
+        <v>1.046141566597459</v>
       </c>
       <c r="L15">
-        <v>0.98532366346622</v>
+        <v>1.043382593788974</v>
       </c>
       <c r="M15">
-        <v>0.9988446154092154</v>
+        <v>1.053019875250603</v>
       </c>
       <c r="N15">
-        <v>0.9988870472692716</v>
+        <v>1.017815787343501</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>0.9646638396209042</v>
+        <v>1.036911341092951</v>
       </c>
       <c r="D16">
-        <v>0.9923682054464836</v>
+        <v>1.043354885379924</v>
       </c>
       <c r="E16">
-        <v>0.9750078722639224</v>
+        <v>1.040750136361759</v>
       </c>
       <c r="F16">
-        <v>0.9886471229976813</v>
+        <v>1.050393116038188</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.032360305429193</v>
+        <v>1.03496289534051</v>
       </c>
       <c r="J16">
-        <v>0.9942716068731852</v>
+        <v>1.043221735016225</v>
       </c>
       <c r="K16">
-        <v>1.006839547722632</v>
+        <v>1.046766389048244</v>
       </c>
       <c r="L16">
-        <v>0.9898054663047431</v>
+        <v>1.044170804803506</v>
       </c>
       <c r="M16">
-        <v>1.00318713729601</v>
+        <v>1.053780106069629</v>
       </c>
       <c r="N16">
-        <v>1.000365651551666</v>
+        <v>1.018065073443206</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>0.9680740711105686</v>
+        <v>1.037499125346336</v>
       </c>
       <c r="D17">
-        <v>0.9950160709297576</v>
+        <v>1.043818807424783</v>
       </c>
       <c r="E17">
-        <v>0.9781542846189718</v>
+        <v>1.041317262870668</v>
       </c>
       <c r="F17">
-        <v>0.9916978384786209</v>
+        <v>1.050941820239988</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033316996144695</v>
+        <v>1.035091148059692</v>
       </c>
       <c r="J17">
-        <v>0.9968169184993164</v>
+        <v>1.043670676070352</v>
       </c>
       <c r="K17">
-        <v>1.009112054460747</v>
+        <v>1.047157623606307</v>
       </c>
       <c r="L17">
-        <v>0.9925565062407873</v>
+        <v>1.044664676558906</v>
       </c>
       <c r="M17">
-        <v>1.005853017581194</v>
+        <v>1.054256401880119</v>
       </c>
       <c r="N17">
-        <v>1.001272651081497</v>
+        <v>1.018221107592932</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>0.9700372156945263</v>
+        <v>1.037841783821397</v>
       </c>
       <c r="D18">
-        <v>0.9965411988626764</v>
+        <v>1.044089220777217</v>
       </c>
       <c r="E18">
-        <v>0.9799666755241159</v>
+        <v>1.041647919636204</v>
       </c>
       <c r="F18">
-        <v>0.9934553250368956</v>
+        <v>1.051261724513025</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.033866412269345</v>
+        <v>1.035165714644665</v>
       </c>
       <c r="J18">
-        <v>0.9982820070324609</v>
+        <v>1.043932311487111</v>
       </c>
       <c r="K18">
-        <v>1.010419904006508</v>
+        <v>1.04738557362926</v>
       </c>
       <c r="L18">
-        <v>0.9941404086772432</v>
+        <v>1.044952546888187</v>
       </c>
       <c r="M18">
-        <v>1.007387992526209</v>
+        <v>1.054534011389523</v>
       </c>
       <c r="N18">
-        <v>1.001794622361119</v>
+        <v>1.018311999119894</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>0.9707023057674403</v>
+        <v>1.03795859020623</v>
       </c>
       <c r="D19">
-        <v>0.9970580311842996</v>
+        <v>1.044181393625004</v>
       </c>
       <c r="E19">
-        <v>0.9805808770922921</v>
+        <v>1.041760641787564</v>
       </c>
       <c r="F19">
-        <v>0.9940509550848929</v>
+        <v>1.051370779124297</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034052321185165</v>
+        <v>1.035191099101001</v>
       </c>
       <c r="J19">
-        <v>0.9987783315890909</v>
+        <v>1.044021484556454</v>
       </c>
       <c r="K19">
-        <v>1.010862923550665</v>
+        <v>1.047463256381111</v>
       </c>
       <c r="L19">
-        <v>0.9946770508724526</v>
+        <v>1.045050670080243</v>
       </c>
       <c r="M19">
-        <v>1.007908073475857</v>
+        <v>1.054628634353532</v>
       </c>
       <c r="N19">
-        <v>1.001971431127176</v>
+        <v>1.018342970398742</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>0.9677109013612331</v>
+        <v>1.037436080976938</v>
       </c>
       <c r="D20">
-        <v>0.9947339987214819</v>
+        <v>1.043769052110258</v>
       </c>
       <c r="E20">
-        <v>0.9778190928352681</v>
+        <v>1.041256429949534</v>
       </c>
       <c r="F20">
-        <v>0.9913728181731717</v>
+        <v>1.050882964585195</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033215250050458</v>
+        <v>1.035077412706009</v>
       </c>
       <c r="J20">
-        <v>0.9965458726653986</v>
+        <v>1.043622532192911</v>
       </c>
       <c r="K20">
-        <v>1.008870080767915</v>
+        <v>1.047115673789635</v>
       </c>
       <c r="L20">
-        <v>0.9922635116085046</v>
+        <v>1.044611709191802</v>
       </c>
       <c r="M20">
-        <v>1.00556908164914</v>
+        <v>1.054205321179878</v>
       </c>
       <c r="N20">
-        <v>1.001176076396281</v>
+        <v>1.018204379090333</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>0.9576710047154465</v>
+        <v>1.035735144909753</v>
       </c>
       <c r="D21">
-        <v>0.9869447996414239</v>
+        <v>1.042426307552294</v>
       </c>
       <c r="E21">
-        <v>0.9685637292516708</v>
+        <v>1.039615542578668</v>
       </c>
       <c r="F21">
-        <v>0.9824005857633432</v>
+        <v>1.049295304667216</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.030390209529485</v>
+        <v>1.034704969159746</v>
       </c>
       <c r="J21">
-        <v>0.9890516485249443</v>
+        <v>1.042322848232303</v>
       </c>
       <c r="K21">
-        <v>1.00217780105568</v>
+        <v>1.045982692547255</v>
       </c>
       <c r="L21">
-        <v>0.9841661923808982</v>
+        <v>1.043182276853547</v>
       </c>
       <c r="M21">
-        <v>0.9977232357656075</v>
+        <v>1.05282665564225</v>
       </c>
       <c r="N21">
-        <v>0.9985050040300466</v>
+        <v>1.017752383597572</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>0.9510953186089731</v>
+        <v>1.034663959754354</v>
       </c>
       <c r="D22">
-        <v>0.9818529797381128</v>
+        <v>1.041580366649536</v>
       </c>
       <c r="E22">
-        <v>0.9625135074597353</v>
+        <v>1.038582549276304</v>
       </c>
       <c r="F22">
-        <v>0.9765380323812879</v>
+        <v>1.048295718060741</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.028528514445746</v>
+        <v>1.034468612488365</v>
       </c>
       <c r="J22">
-        <v>0.9841428514770545</v>
+        <v>1.041503618861177</v>
       </c>
       <c r="K22">
-        <v>0.9977927130259682</v>
+        <v>1.04526804679699</v>
       </c>
       <c r="L22">
-        <v>0.9788660424304476</v>
+        <v>1.042281714696156</v>
       </c>
       <c r="M22">
-        <v>0.992589057484645</v>
+        <v>1.05195793441256</v>
       </c>
       <c r="N22">
-        <v>0.9967547867607639</v>
+        <v>1.017467095152714</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>0.9546076968937945</v>
+        <v>1.035231983152333</v>
       </c>
       <c r="D23">
-        <v>0.9845717493642295</v>
+        <v>1.042028979487574</v>
       </c>
       <c r="E23">
-        <v>0.9657440615020155</v>
+        <v>1.039130284652731</v>
       </c>
       <c r="F23">
-        <v>0.9796681093804642</v>
+        <v>1.048825749352926</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.029523955014802</v>
+        <v>1.034594117627875</v>
       </c>
       <c r="J23">
-        <v>0.9867648528591642</v>
+        <v>1.041938105955215</v>
       </c>
       <c r="K23">
-        <v>1.00013510497824</v>
+        <v>1.045647113511258</v>
       </c>
       <c r="L23">
-        <v>0.9816967391145009</v>
+        <v>1.042759294766796</v>
       </c>
       <c r="M23">
-        <v>0.9953309631582621</v>
+        <v>1.052418642243758</v>
       </c>
       <c r="N23">
-        <v>0.997689697919766</v>
+        <v>1.017618437036211</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>0.9678750821371352</v>
+        <v>1.03746456858913</v>
       </c>
       <c r="D24">
-        <v>0.994861514524478</v>
+        <v>1.043791534965653</v>
       </c>
       <c r="E24">
-        <v>0.9779706219498783</v>
+        <v>1.041283918156398</v>
       </c>
       <c r="F24">
-        <v>0.9915197484248286</v>
+        <v>1.050909559372386</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033261251240488</v>
+        <v>1.035083619866058</v>
       </c>
       <c r="J24">
-        <v>0.9966684068041339</v>
+        <v>1.043644287032107</v>
       </c>
       <c r="K24">
-        <v>1.008979472663408</v>
+        <v>1.047134629880257</v>
       </c>
       <c r="L24">
-        <v>0.9923959671075078</v>
+        <v>1.044635643473104</v>
       </c>
       <c r="M24">
-        <v>1.00569744162217</v>
+        <v>1.054228402985674</v>
       </c>
       <c r="N24">
-        <v>1.001219736101212</v>
+        <v>1.018211938353191</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>0.9822619871377347</v>
+        <v>1.040048089332273</v>
       </c>
       <c r="D25">
-        <v>1.006051266194495</v>
+        <v>1.045829664740421</v>
       </c>
       <c r="E25">
-        <v>0.9912710469398293</v>
+        <v>1.043777682894154</v>
       </c>
       <c r="F25">
-        <v>1.004420481947112</v>
+        <v>1.053322018263654</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.03726342956207</v>
+        <v>1.035642211273466</v>
       </c>
       <c r="J25">
-        <v>1.007401415604889</v>
+        <v>1.045615439139742</v>
       </c>
       <c r="K25">
-        <v>1.018556364760193</v>
+        <v>1.048851003688589</v>
       </c>
       <c r="L25">
-        <v>1.004006397080192</v>
+        <v>1.046805349858798</v>
       </c>
       <c r="M25">
-        <v>1.016950561025885</v>
+        <v>1.056320480205388</v>
       </c>
       <c r="N25">
-        <v>1.005041490465366</v>
+        <v>1.018895941991413</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_4_135/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_4_135/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.042103160828266</v>
+        <v>0.9930491656965216</v>
       </c>
       <c r="D2">
-        <v>1.047449668333418</v>
+        <v>1.014459105063463</v>
       </c>
       <c r="E2">
-        <v>1.045762625991648</v>
+        <v>1.001272435563951</v>
       </c>
       <c r="F2">
-        <v>1.055241864462713</v>
+        <v>1.014125616604884</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.036080199957325</v>
+        <v>1.040220246990145</v>
       </c>
       <c r="J2">
-        <v>1.047180785994238</v>
+        <v>1.01543978140541</v>
       </c>
       <c r="K2">
-        <v>1.050212273683783</v>
+        <v>1.025720610824861</v>
       </c>
       <c r="L2">
-        <v>1.048529955483006</v>
+        <v>1.012714071757488</v>
       </c>
       <c r="M2">
-        <v>1.057982862116065</v>
+        <v>1.025391605256156</v>
       </c>
       <c r="N2">
-        <v>1.019437771148988</v>
+        <v>1.007899323218382</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.043592275506503</v>
+        <v>1.000534651165076</v>
       </c>
       <c r="D3">
-        <v>1.048622793244932</v>
+        <v>1.020300713737049</v>
       </c>
       <c r="E3">
-        <v>1.047201647717809</v>
+        <v>1.008227328342274</v>
       </c>
       <c r="F3">
-        <v>1.056633465450365</v>
+        <v>1.020876062636947</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.036393882336288</v>
+        <v>1.042245027407879</v>
       </c>
       <c r="J3">
-        <v>1.048313519075403</v>
+        <v>1.021010751654424</v>
       </c>
       <c r="K3">
-        <v>1.051196308484739</v>
+        <v>1.030680268717816</v>
       </c>
       <c r="L3">
-        <v>1.049778851263619</v>
+        <v>1.018756010252125</v>
       </c>
       <c r="M3">
-        <v>1.059186390690868</v>
+        <v>1.031248620494955</v>
       </c>
       <c r="N3">
-        <v>1.019829062078323</v>
+        <v>1.009876813405604</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.044554474257271</v>
+        <v>1.005232464137468</v>
       </c>
       <c r="D4">
-        <v>1.049380465269363</v>
+        <v>1.023969280900719</v>
       </c>
       <c r="E4">
-        <v>1.048131808629375</v>
+        <v>1.012598377074156</v>
       </c>
       <c r="F4">
-        <v>1.057532866797813</v>
+        <v>1.025119081003698</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.036594861667678</v>
+        <v>1.043502770312002</v>
       </c>
       <c r="J4">
-        <v>1.049044731523641</v>
+        <v>1.024503263433166</v>
       </c>
       <c r="K4">
-        <v>1.05183105651729</v>
+        <v>1.033786775081184</v>
       </c>
       <c r="L4">
-        <v>1.05058547547313</v>
+        <v>1.022547092000026</v>
       </c>
       <c r="M4">
-        <v>1.059963569574531</v>
+        <v>1.034923506292723</v>
       </c>
       <c r="N4">
-        <v>1.020081282631951</v>
+        <v>1.011114910494079</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.044958664855833</v>
+        <v>1.007174501172691</v>
       </c>
       <c r="D5">
-        <v>1.049698655890445</v>
+        <v>1.025486297942059</v>
       </c>
       <c r="E5">
-        <v>1.048522619470004</v>
+        <v>1.014406752091775</v>
       </c>
       <c r="F5">
-        <v>1.057910727795737</v>
+        <v>1.026874562772045</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.036678877663116</v>
+        <v>1.044019524324138</v>
       </c>
       <c r="J5">
-        <v>1.049351721638199</v>
+        <v>1.025946063287521</v>
       </c>
       <c r="K5">
-        <v>1.05209743310303</v>
+        <v>1.035069416523152</v>
       </c>
       <c r="L5">
-        <v>1.050924228172968</v>
+        <v>1.024114034920034</v>
       </c>
       <c r="M5">
-        <v>1.060289921542084</v>
+        <v>1.036442355776052</v>
       </c>
       <c r="N5">
-        <v>1.020187085434746</v>
+        <v>1.011625971374216</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.045026511815536</v>
+        <v>1.007498701550299</v>
       </c>
       <c r="D6">
-        <v>1.049752062008785</v>
+        <v>1.025739569953498</v>
       </c>
       <c r="E6">
-        <v>1.048588225097062</v>
+        <v>1.014708720570095</v>
       </c>
       <c r="F6">
-        <v>1.057974157985858</v>
+        <v>1.027167702382277</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.036692956471018</v>
+        <v>1.04410560097649</v>
       </c>
       <c r="J6">
-        <v>1.049403242647601</v>
+        <v>1.026186862500867</v>
       </c>
       <c r="K6">
-        <v>1.052142131386228</v>
+        <v>1.035283444005138</v>
       </c>
       <c r="L6">
-        <v>1.050981085760186</v>
+        <v>1.024375600470466</v>
       </c>
       <c r="M6">
-        <v>1.060344695693761</v>
+        <v>1.036695888513079</v>
       </c>
       <c r="N6">
-        <v>1.020204836710758</v>
+        <v>1.011711241040634</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.044559876311293</v>
+        <v>1.005258540604509</v>
       </c>
       <c r="D7">
-        <v>1.049384718257186</v>
+        <v>1.023989648791272</v>
       </c>
       <c r="E7">
-        <v>1.048137031554121</v>
+        <v>1.01262265328663</v>
       </c>
       <c r="F7">
-        <v>1.057537916759559</v>
+        <v>1.025142646908424</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.036595986160684</v>
+        <v>1.043509721667303</v>
       </c>
       <c r="J7">
-        <v>1.049048835151281</v>
+        <v>1.024522640405479</v>
       </c>
       <c r="K7">
-        <v>1.051834617701326</v>
+        <v>1.033804003898205</v>
       </c>
       <c r="L7">
-        <v>1.050590003279752</v>
+        <v>1.022568133053629</v>
       </c>
       <c r="M7">
-        <v>1.059967931768631</v>
+        <v>1.034943901843359</v>
       </c>
       <c r="N7">
-        <v>1.020082697278641</v>
+        <v>1.011121775766361</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.042606699731954</v>
+        <v>0.9956103562871522</v>
       </c>
       <c r="D8">
-        <v>1.047846427962423</v>
+        <v>1.016457244172972</v>
       </c>
       <c r="E8">
-        <v>1.046249157374935</v>
+        <v>1.00365071800545</v>
       </c>
       <c r="F8">
-        <v>1.055712385034782</v>
+        <v>1.01643386665955</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.036186624305382</v>
+        <v>1.040915732006607</v>
       </c>
       <c r="J8">
-        <v>1.04756396227764</v>
+        <v>1.017346663602313</v>
       </c>
       <c r="K8">
-        <v>1.050545247263836</v>
+        <v>1.027418812176425</v>
       </c>
       <c r="L8">
-        <v>1.048952338657612</v>
+        <v>1.01478146404278</v>
       </c>
       <c r="M8">
-        <v>1.058389931540743</v>
+        <v>1.027395738623439</v>
       </c>
       <c r="N8">
-        <v>1.019570211799098</v>
+        <v>1.008576522602962</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.039154221699902</v>
+        <v>0.9773934270845089</v>
       </c>
       <c r="D9">
-        <v>1.045124684369643</v>
+        <v>1.002261307021788</v>
       </c>
       <c r="E9">
-        <v>1.042914671487587</v>
+        <v>0.9867652459663346</v>
       </c>
       <c r="F9">
-        <v>1.052487202210424</v>
+        <v>1.000049260466623</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03544992754739</v>
+        <v>1.035915869728617</v>
       </c>
       <c r="J9">
-        <v>1.044933847610834</v>
+        <v>1.003770538882713</v>
       </c>
       <c r="K9">
-        <v>1.04825778076856</v>
+        <v>1.015317802329528</v>
       </c>
       <c r="L9">
-        <v>1.046054856488974</v>
+        <v>1.000076760585563</v>
       </c>
       <c r="M9">
-        <v>1.055596918265211</v>
+        <v>1.013141538504617</v>
       </c>
       <c r="N9">
-        <v>1.018659634593932</v>
+        <v>1.003749250750846</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.036844890421676</v>
+        <v>0.96427484332341</v>
       </c>
       <c r="D10">
-        <v>1.043302432616796</v>
+        <v>0.9920662921870307</v>
       </c>
       <c r="E10">
-        <v>1.040686026682321</v>
+        <v>0.9746491257662121</v>
       </c>
       <c r="F10">
-        <v>1.050331087313904</v>
+        <v>0.9882993192494209</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03494836888239</v>
+        <v>1.032251000802632</v>
       </c>
       <c r="J10">
-        <v>1.04317096985355</v>
+        <v>0.993981251877486</v>
       </c>
       <c r="K10">
-        <v>1.046722141756622</v>
+        <v>1.006580285060848</v>
       </c>
       <c r="L10">
-        <v>1.044114965761424</v>
+        <v>0.9894916971339599</v>
       </c>
       <c r="M10">
-        <v>1.05372625206327</v>
+        <v>1.002883096331755</v>
       </c>
       <c r="N10">
-        <v>1.01804742372127</v>
+        <v>1.000262173309546</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.035842999226458</v>
+        <v>0.9583219087334258</v>
       </c>
       <c r="D11">
-        <v>1.042511468828855</v>
+        <v>0.987449255595728</v>
       </c>
       <c r="E11">
-        <v>1.039719567449367</v>
+        <v>0.9691631213249638</v>
       </c>
       <c r="F11">
-        <v>1.049395961136644</v>
+        <v>0.9829815019493885</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.034728690771112</v>
+        <v>1.03057403272187</v>
       </c>
       <c r="J11">
-        <v>1.042405302728157</v>
+        <v>0.9895375526567222</v>
       </c>
       <c r="K11">
-        <v>1.046054599955737</v>
+        <v>1.002611806466256</v>
       </c>
       <c r="L11">
-        <v>1.04327293649937</v>
+        <v>0.9846909874868687</v>
       </c>
       <c r="M11">
-        <v>1.052914103847109</v>
+        <v>0.9982316606065451</v>
       </c>
       <c r="N11">
-        <v>1.017781081411866</v>
+        <v>0.9986782301873822</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.035470552414972</v>
+        <v>0.9560656612011863</v>
       </c>
       <c r="D12">
-        <v>1.042217375646151</v>
+        <v>0.9857009741097501</v>
       </c>
       <c r="E12">
-        <v>1.039360357052154</v>
+        <v>0.9670858170389188</v>
       </c>
       <c r="F12">
-        <v>1.049048378892083</v>
+        <v>0.9809683168473021</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.034646714789643</v>
+        <v>1.029936474636318</v>
       </c>
       <c r="J12">
-        <v>1.042120543269467</v>
+        <v>0.9878532418281513</v>
       </c>
       <c r="K12">
-        <v>1.045806248947295</v>
+        <v>1.001107345718336</v>
       </c>
       <c r="L12">
-        <v>1.042959855161059</v>
+        <v>0.9828719868695417</v>
       </c>
       <c r="M12">
-        <v>1.052612108103886</v>
+        <v>0.9964694482690887</v>
       </c>
       <c r="N12">
-        <v>1.017681959919823</v>
+        <v>0.9980777498699945</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.035550457233074</v>
+        <v>0.9565517456527065</v>
       </c>
       <c r="D13">
-        <v>1.042280473034502</v>
+        <v>0.9860775442606241</v>
       </c>
       <c r="E13">
-        <v>1.039437419183496</v>
+        <v>0.9675332583759352</v>
       </c>
       <c r="F13">
-        <v>1.049122947203274</v>
+        <v>0.981401926309963</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.034664316044931</v>
+        <v>1.030073916077708</v>
       </c>
       <c r="J13">
-        <v>1.042181641383725</v>
+        <v>0.988216109958288</v>
       </c>
       <c r="K13">
-        <v>1.045859539104434</v>
+        <v>1.001431478308592</v>
       </c>
       <c r="L13">
-        <v>1.043027026503157</v>
+        <v>0.9832638442777639</v>
       </c>
       <c r="M13">
-        <v>1.052676902153402</v>
+        <v>0.9968490608134507</v>
       </c>
       <c r="N13">
-        <v>1.017703230453574</v>
+        <v>0.9982071217833867</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.035812218825354</v>
+        <v>0.9581363517682048</v>
       </c>
       <c r="D14">
-        <v>1.042487165027572</v>
+        <v>0.9873054396435084</v>
       </c>
       <c r="E14">
-        <v>1.039689879629406</v>
+        <v>0.9689922399729021</v>
       </c>
       <c r="F14">
-        <v>1.049367234710794</v>
+        <v>0.9828158858400436</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.034721922329503</v>
+        <v>1.030521638046609</v>
       </c>
       <c r="J14">
-        <v>1.042381771735466</v>
+        <v>0.9893990334026316</v>
       </c>
       <c r="K14">
-        <v>1.046034079300334</v>
+        <v>1.002488083452434</v>
       </c>
       <c r="L14">
-        <v>1.04324706354885</v>
+        <v>0.9845413784996796</v>
       </c>
       <c r="M14">
-        <v>1.052889147508905</v>
+        <v>0.9980867173634436</v>
       </c>
       <c r="N14">
-        <v>1.017772891888928</v>
+        <v>0.9986288481663343</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.035973458782443</v>
+        <v>0.9591065755700603</v>
       </c>
       <c r="D15">
-        <v>1.042614475644799</v>
+        <v>0.9880574799906616</v>
       </c>
       <c r="E15">
-        <v>1.039845398870059</v>
+        <v>0.9698858102613617</v>
       </c>
       <c r="F15">
-        <v>1.049517716982575</v>
+        <v>0.9836819413160253</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.034757365341974</v>
+        <v>1.030795515743045</v>
       </c>
       <c r="J15">
-        <v>1.042505031198587</v>
+        <v>0.9901233080373016</v>
       </c>
       <c r="K15">
-        <v>1.046141566597459</v>
+        <v>1.003134982305319</v>
       </c>
       <c r="L15">
-        <v>1.043382593788974</v>
+        <v>0.98532366346622</v>
       </c>
       <c r="M15">
-        <v>1.053019875250603</v>
+        <v>0.9988446154092157</v>
       </c>
       <c r="N15">
-        <v>1.017815787343501</v>
+        <v>0.9988870472692716</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.036911341092951</v>
+        <v>0.9646638396209025</v>
       </c>
       <c r="D16">
-        <v>1.043354885379924</v>
+        <v>0.9923682054464823</v>
       </c>
       <c r="E16">
-        <v>1.040750136361759</v>
+        <v>0.9750078722639206</v>
       </c>
       <c r="F16">
-        <v>1.050393116038188</v>
+        <v>0.9886471229976795</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03496289534051</v>
+        <v>1.032360305429192</v>
       </c>
       <c r="J16">
-        <v>1.043221735016225</v>
+        <v>0.9942716068731836</v>
       </c>
       <c r="K16">
-        <v>1.046766389048244</v>
+        <v>1.006839547722631</v>
       </c>
       <c r="L16">
-        <v>1.044170804803506</v>
+        <v>0.9898054663047415</v>
       </c>
       <c r="M16">
-        <v>1.053780106069629</v>
+        <v>1.003187137296009</v>
       </c>
       <c r="N16">
-        <v>1.018065073443206</v>
+        <v>1.000365651551666</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.037499125346336</v>
+        <v>0.9680740711105696</v>
       </c>
       <c r="D17">
-        <v>1.043818807424783</v>
+        <v>0.9950160709297581</v>
       </c>
       <c r="E17">
-        <v>1.041317262870668</v>
+        <v>0.9781542846189725</v>
       </c>
       <c r="F17">
-        <v>1.050941820239988</v>
+        <v>0.9916978384786215</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.035091148059692</v>
+        <v>1.033316996144695</v>
       </c>
       <c r="J17">
-        <v>1.043670676070352</v>
+        <v>0.9968169184993172</v>
       </c>
       <c r="K17">
-        <v>1.047157623606307</v>
+        <v>1.009112054460748</v>
       </c>
       <c r="L17">
-        <v>1.044664676558906</v>
+        <v>0.992556506240788</v>
       </c>
       <c r="M17">
-        <v>1.054256401880119</v>
+        <v>1.005853017581195</v>
       </c>
       <c r="N17">
-        <v>1.018221107592932</v>
+        <v>1.001272651081497</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.037841783821397</v>
+        <v>0.9700372156945257</v>
       </c>
       <c r="D18">
-        <v>1.044089220777217</v>
+        <v>0.9965411988626759</v>
       </c>
       <c r="E18">
-        <v>1.041647919636204</v>
+        <v>0.9799666755241152</v>
       </c>
       <c r="F18">
-        <v>1.051261724513025</v>
+        <v>0.9934553250368946</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.035165714644665</v>
+        <v>1.033866412269345</v>
       </c>
       <c r="J18">
-        <v>1.043932311487111</v>
+        <v>0.9982820070324602</v>
       </c>
       <c r="K18">
-        <v>1.04738557362926</v>
+        <v>1.010419904006508</v>
       </c>
       <c r="L18">
-        <v>1.044952546888187</v>
+        <v>0.9941404086772424</v>
       </c>
       <c r="M18">
-        <v>1.054534011389523</v>
+        <v>1.007387992526208</v>
       </c>
       <c r="N18">
-        <v>1.018311999119894</v>
+        <v>1.001794622361119</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.03795859020623</v>
+        <v>0.9707023057674392</v>
       </c>
       <c r="D19">
-        <v>1.044181393625004</v>
+        <v>0.9970580311842987</v>
       </c>
       <c r="E19">
-        <v>1.041760641787564</v>
+        <v>0.9805808770922906</v>
       </c>
       <c r="F19">
-        <v>1.051370779124297</v>
+        <v>0.9940509550848914</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.035191099101001</v>
+        <v>1.034052321185165</v>
       </c>
       <c r="J19">
-        <v>1.044021484556454</v>
+        <v>0.9987783315890897</v>
       </c>
       <c r="K19">
-        <v>1.047463256381111</v>
+        <v>1.010862923550664</v>
       </c>
       <c r="L19">
-        <v>1.045050670080243</v>
+        <v>0.9946770508724513</v>
       </c>
       <c r="M19">
-        <v>1.054628634353532</v>
+        <v>1.007908073475855</v>
       </c>
       <c r="N19">
-        <v>1.018342970398742</v>
+        <v>1.001971431127175</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.037436080976938</v>
+        <v>0.9677109013612325</v>
       </c>
       <c r="D20">
-        <v>1.043769052110258</v>
+        <v>0.9947339987214812</v>
       </c>
       <c r="E20">
-        <v>1.041256429949534</v>
+        <v>0.9778190928352677</v>
       </c>
       <c r="F20">
-        <v>1.050882964585195</v>
+        <v>0.9913728181731711</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035077412706009</v>
+        <v>1.033215250050457</v>
       </c>
       <c r="J20">
-        <v>1.043622532192911</v>
+        <v>0.9965458726653981</v>
       </c>
       <c r="K20">
-        <v>1.047115673789635</v>
+        <v>1.008870080767914</v>
       </c>
       <c r="L20">
-        <v>1.044611709191802</v>
+        <v>0.9922635116085041</v>
       </c>
       <c r="M20">
-        <v>1.054205321179878</v>
+        <v>1.005569081649139</v>
       </c>
       <c r="N20">
-        <v>1.018204379090333</v>
+        <v>1.001176076396281</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.035735144909753</v>
+        <v>0.9576710047154454</v>
       </c>
       <c r="D21">
-        <v>1.042426307552294</v>
+        <v>0.9869447996414229</v>
       </c>
       <c r="E21">
-        <v>1.039615542578668</v>
+        <v>0.9685637292516699</v>
       </c>
       <c r="F21">
-        <v>1.049295304667216</v>
+        <v>0.982400585763342</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.034704969159746</v>
+        <v>1.030390209529485</v>
       </c>
       <c r="J21">
-        <v>1.042322848232303</v>
+        <v>0.9890516485249432</v>
       </c>
       <c r="K21">
-        <v>1.045982692547255</v>
+        <v>1.002177801055679</v>
       </c>
       <c r="L21">
-        <v>1.043182276853547</v>
+        <v>0.9841661923808976</v>
       </c>
       <c r="M21">
-        <v>1.05282665564225</v>
+        <v>0.9977232357656065</v>
       </c>
       <c r="N21">
-        <v>1.017752383597572</v>
+        <v>0.9985050040300463</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.034663959754354</v>
+        <v>0.9510953186089718</v>
       </c>
       <c r="D22">
-        <v>1.041580366649536</v>
+        <v>0.9818529797381117</v>
       </c>
       <c r="E22">
-        <v>1.038582549276304</v>
+        <v>0.9625135074597337</v>
       </c>
       <c r="F22">
-        <v>1.048295718060741</v>
+        <v>0.9765380323812868</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.034468612488365</v>
+        <v>1.028528514445746</v>
       </c>
       <c r="J22">
-        <v>1.041503618861177</v>
+        <v>0.9841428514770533</v>
       </c>
       <c r="K22">
-        <v>1.04526804679699</v>
+        <v>0.9977927130259671</v>
       </c>
       <c r="L22">
-        <v>1.042281714696156</v>
+        <v>0.9788660424304465</v>
       </c>
       <c r="M22">
-        <v>1.05195793441256</v>
+        <v>0.992589057484644</v>
       </c>
       <c r="N22">
-        <v>1.017467095152714</v>
+        <v>0.9967547867607635</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.035231983152333</v>
+        <v>0.9546076968937923</v>
       </c>
       <c r="D23">
-        <v>1.042028979487574</v>
+        <v>0.9845717493642271</v>
       </c>
       <c r="E23">
-        <v>1.039130284652731</v>
+        <v>0.9657440615020129</v>
       </c>
       <c r="F23">
-        <v>1.048825749352926</v>
+        <v>0.9796681093804614</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.034594117627875</v>
+        <v>1.029523955014801</v>
       </c>
       <c r="J23">
-        <v>1.041938105955215</v>
+        <v>0.9867648528591616</v>
       </c>
       <c r="K23">
-        <v>1.045647113511258</v>
+        <v>1.000135104978238</v>
       </c>
       <c r="L23">
-        <v>1.042759294766796</v>
+        <v>0.9816967391144984</v>
       </c>
       <c r="M23">
-        <v>1.052418642243758</v>
+        <v>0.9953309631582596</v>
       </c>
       <c r="N23">
-        <v>1.017618437036211</v>
+        <v>0.9976896979197653</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.03746456858913</v>
+        <v>0.9678750821371352</v>
       </c>
       <c r="D24">
-        <v>1.043791534965653</v>
+        <v>0.9948615145244782</v>
       </c>
       <c r="E24">
-        <v>1.041283918156398</v>
+        <v>0.9779706219498785</v>
       </c>
       <c r="F24">
-        <v>1.050909559372386</v>
+        <v>0.9915197484248289</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035083619866058</v>
+        <v>1.033261251240488</v>
       </c>
       <c r="J24">
-        <v>1.043644287032107</v>
+        <v>0.9966684068041339</v>
       </c>
       <c r="K24">
-        <v>1.047134629880257</v>
+        <v>1.008979472663408</v>
       </c>
       <c r="L24">
-        <v>1.044635643473104</v>
+        <v>0.992395967107508</v>
       </c>
       <c r="M24">
-        <v>1.054228402985674</v>
+        <v>1.00569744162217</v>
       </c>
       <c r="N24">
-        <v>1.018211938353191</v>
+        <v>1.001219736101212</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.040048089332273</v>
+        <v>0.9822619871377355</v>
       </c>
       <c r="D25">
-        <v>1.045829664740421</v>
+        <v>1.006051266194496</v>
       </c>
       <c r="E25">
-        <v>1.043777682894154</v>
+        <v>0.9912710469398299</v>
       </c>
       <c r="F25">
-        <v>1.053322018263654</v>
+        <v>1.004420481947113</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.035642211273466</v>
+        <v>1.037263429562071</v>
       </c>
       <c r="J25">
-        <v>1.045615439139742</v>
+        <v>1.007401415604889</v>
       </c>
       <c r="K25">
-        <v>1.048851003688589</v>
+        <v>1.018556364760194</v>
       </c>
       <c r="L25">
-        <v>1.046805349858798</v>
+        <v>1.004006397080192</v>
       </c>
       <c r="M25">
-        <v>1.056320480205388</v>
+        <v>1.016950561025885</v>
       </c>
       <c r="N25">
-        <v>1.018895941991413</v>
+        <v>1.005041490465366</v>
       </c>
     </row>
   </sheetData>
